--- a/public/jadwal-Example.xlsx
+++ b/public/jadwal-Example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cutsu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Absensi-SMK\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7774D20-CD28-4BDA-882C-6C4BC8419720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1AA2B-0FA8-498D-8047-589206D7A874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3DDE289-0073-464E-A3A9-AB5952E579D4}"/>
   </bookViews>
@@ -34,43 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>nisn</t>
-  </si>
-  <si>
-    <t>kelas</t>
-  </si>
-  <si>
-    <t>tanggal lahir</t>
-  </si>
-  <si>
-    <t>jenis kelamin</t>
-  </si>
-  <si>
-    <t>agama</t>
-  </si>
-  <si>
-    <t>tahun masuk</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Annisa</t>
-  </si>
-  <si>
-    <t>Muh Abbas</t>
-  </si>
-  <si>
-    <t>Nur Asiah</t>
-  </si>
-  <si>
-    <t>Syaika ika</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -78,23 +42,65 @@
     <t>X MM A</t>
   </si>
   <si>
-    <t>perempuan</t>
-  </si>
-  <si>
-    <t>aktif</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>islam</t>
+    <t>Guru Pengajar</t>
+  </si>
+  <si>
+    <t>Mapel</t>
+  </si>
+  <si>
+    <t>Tahun Ajaran</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Jam Ke</t>
+  </si>
+  <si>
+    <t>Jam Mulai</t>
+  </si>
+  <si>
+    <t>Jam Selesai</t>
+  </si>
+  <si>
+    <t>Ruangan</t>
+  </si>
+  <si>
+    <t>Yustin Talitti, S.Pd, M.Pd</t>
+  </si>
+  <si>
+    <t>Yatun, S.Pd</t>
+  </si>
+  <si>
+    <t>BING</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>R-8</t>
+  </si>
+  <si>
+    <t>Ganjil</t>
+  </si>
+  <si>
+    <t>R-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-13809]hh:mm;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +113,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +150,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,172 +470,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C41B9C-3FCF-4B38-B856-FE9ED5690CE1}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1111111111</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>37146</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2222222222</v>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>36206</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3333333333</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>35053</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4444444444</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>38333</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>